--- a/temp/画面設計書/01/画面遷移図_1.xlsx
+++ b/temp/画面設計書/01/画面遷移図_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27706"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="279" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9F82B3F-9D0B-42D7-B068-9936D0242424}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BE1A98A-B41F-48E8-9A8A-3B5BA3897A4F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>画面設計書</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>更新者</t>
+  </si>
+  <si>
+    <t>井上 岬</t>
   </si>
   <si>
     <t>システム名</t>
@@ -538,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -564,6 +567,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -579,30 +591,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2162,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D700E8A0-31D1-4030-BDCF-0BA833385F8E}">
   <dimension ref="B1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2176,84 +2172,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="C3" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="32"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45430</v>
+      </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="C4" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="36"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="C5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="38"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="C6" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="40"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -2423,159 +2425,159 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="F28" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="2:7" ht="24">
-      <c r="B29" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="27" t="s">
+      <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E29" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="28"/>
+      <c r="F29" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="24">
-      <c r="B30" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="27" t="s">
+      <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="C30" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E30" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="F30" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="38"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="27" t="s">
+      <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="C31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28" t="s">
+      <c r="D31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="38"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
+      <c r="B33" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37"/>
+      <c r="B34" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
+      <c r="B35" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
+      <c r="B36" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="19"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="35"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="19"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="35"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
       <c r="G38" s="19"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
